--- a/Archivo_Importacion_Inventario_biblioteca.xlsx
+++ b/Archivo_Importacion_Inventario_biblioteca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22575" windowHeight="8175"/>
+    <workbookView windowWidth="28800" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="86">
   <si>
     <t>SA5444</t>
   </si>
@@ -84,6 +84,195 @@
   </si>
   <si>
     <t>ESTANTE 5</t>
+  </si>
+  <si>
+    <t>SA5448</t>
+  </si>
+  <si>
+    <t>22A5A45D</t>
+  </si>
+  <si>
+    <t>ESTANTE 6</t>
+  </si>
+  <si>
+    <t>SA5449</t>
+  </si>
+  <si>
+    <t>22A5A46D</t>
+  </si>
+  <si>
+    <t>ESTANTE 7</t>
+  </si>
+  <si>
+    <t>SA5450</t>
+  </si>
+  <si>
+    <t>22A5A47D</t>
+  </si>
+  <si>
+    <t>ESTANTE 8</t>
+  </si>
+  <si>
+    <t>SA5451</t>
+  </si>
+  <si>
+    <t>22A5A48D</t>
+  </si>
+  <si>
+    <t>ESTANTE 9</t>
+  </si>
+  <si>
+    <t>SA5452</t>
+  </si>
+  <si>
+    <t>22A5A49D</t>
+  </si>
+  <si>
+    <t>ESTANTE 10</t>
+  </si>
+  <si>
+    <t>SA5453</t>
+  </si>
+  <si>
+    <t>22A5A50D</t>
+  </si>
+  <si>
+    <t>ESTANTE 11</t>
+  </si>
+  <si>
+    <t>SA5454</t>
+  </si>
+  <si>
+    <t>22A5A51D</t>
+  </si>
+  <si>
+    <t>ESTANTE 12</t>
+  </si>
+  <si>
+    <t>SA5455</t>
+  </si>
+  <si>
+    <t>22A5A52D</t>
+  </si>
+  <si>
+    <t>ESTANTE 13</t>
+  </si>
+  <si>
+    <t>SA5456</t>
+  </si>
+  <si>
+    <t>22A5A53D</t>
+  </si>
+  <si>
+    <t>ESTANTE 14</t>
+  </si>
+  <si>
+    <t>SA5457</t>
+  </si>
+  <si>
+    <t>22A5A54D</t>
+  </si>
+  <si>
+    <t>ESTANTE 15</t>
+  </si>
+  <si>
+    <t>SA5458</t>
+  </si>
+  <si>
+    <t>22A5A55D</t>
+  </si>
+  <si>
+    <t>ESTANTE 16</t>
+  </si>
+  <si>
+    <t>SA5459</t>
+  </si>
+  <si>
+    <t>22A5A56D</t>
+  </si>
+  <si>
+    <t>ESTANTE 17</t>
+  </si>
+  <si>
+    <t>SA5460</t>
+  </si>
+  <si>
+    <t>22A5A57D</t>
+  </si>
+  <si>
+    <t>ESTANTE 18</t>
+  </si>
+  <si>
+    <t>SA5461</t>
+  </si>
+  <si>
+    <t>22A5A58D</t>
+  </si>
+  <si>
+    <t>ESTANTE 19</t>
+  </si>
+  <si>
+    <t>SA5462</t>
+  </si>
+  <si>
+    <t>22A5A59D</t>
+  </si>
+  <si>
+    <t>ESTANTE 20</t>
+  </si>
+  <si>
+    <t>SA5463</t>
+  </si>
+  <si>
+    <t>22A5A60D</t>
+  </si>
+  <si>
+    <t>ESTANTE 21</t>
+  </si>
+  <si>
+    <t>SA5464</t>
+  </si>
+  <si>
+    <t>22A5A61D</t>
+  </si>
+  <si>
+    <t>ESTANTE 22</t>
+  </si>
+  <si>
+    <t>SA5465</t>
+  </si>
+  <si>
+    <t>22A5A62D</t>
+  </si>
+  <si>
+    <t>ESTANTE 23</t>
+  </si>
+  <si>
+    <t>SA5466</t>
+  </si>
+  <si>
+    <t>22A5A63D</t>
+  </si>
+  <si>
+    <t>ESTANTE 24</t>
+  </si>
+  <si>
+    <t>SA5467</t>
+  </si>
+  <si>
+    <t>22A5A64D</t>
+  </si>
+  <si>
+    <t>ESTANTE 25</t>
+  </si>
+  <si>
+    <t>SA5468</t>
+  </si>
+  <si>
+    <t>22A5A65D</t>
+  </si>
+  <si>
+    <t>ESTANTE 26</t>
   </si>
 </sst>
 </file>
@@ -91,10 +280,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -105,6 +294,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,28 +355,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -168,14 +365,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,13 +395,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -228,7 +410,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,14 +418,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,61 +447,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,121 +603,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,6 +638,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,41 +700,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,22 +724,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,148 +743,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,13 +1217,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K4"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.42857142857143" customWidth="1"/>
     <col min="2" max="2" width="10.2857142857143" customWidth="1"/>
@@ -1320,6 +1509,1462 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" ht="45" spans="1:22">
+      <c r="A5">
+        <v>1248</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>20118</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>24642013</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>44322</v>
+      </c>
+      <c r="R5" s="1">
+        <v>44322</v>
+      </c>
+      <c r="S5" s="1">
+        <v>44322</v>
+      </c>
+      <c r="T5" s="1">
+        <v>44322</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="45" spans="1:22">
+      <c r="A6">
+        <v>1249</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>20119</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>24642014</v>
+      </c>
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>44323</v>
+      </c>
+      <c r="R6" s="1">
+        <v>44323</v>
+      </c>
+      <c r="S6" s="1">
+        <v>44323</v>
+      </c>
+      <c r="T6" s="1">
+        <v>44323</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="45" spans="1:22">
+      <c r="A7">
+        <v>1250</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>20120</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>24642015</v>
+      </c>
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>44324</v>
+      </c>
+      <c r="R7" s="1">
+        <v>44324</v>
+      </c>
+      <c r="S7" s="1">
+        <v>44324</v>
+      </c>
+      <c r="T7" s="1">
+        <v>44324</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="45" spans="1:22">
+      <c r="A8">
+        <v>1251</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>20121</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>24642016</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>44325</v>
+      </c>
+      <c r="R8" s="1">
+        <v>44325</v>
+      </c>
+      <c r="S8" s="1">
+        <v>44325</v>
+      </c>
+      <c r="T8" s="1">
+        <v>44325</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="45" spans="1:22">
+      <c r="A9">
+        <v>1252</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>20122</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>24642017</v>
+      </c>
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>44326</v>
+      </c>
+      <c r="R9" s="1">
+        <v>44326</v>
+      </c>
+      <c r="S9" s="1">
+        <v>44326</v>
+      </c>
+      <c r="T9" s="1">
+        <v>44326</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="45" spans="1:22">
+      <c r="A10">
+        <v>1253</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>20123</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>24642018</v>
+      </c>
+      <c r="K10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>44327</v>
+      </c>
+      <c r="R10" s="1">
+        <v>44327</v>
+      </c>
+      <c r="S10" s="1">
+        <v>44327</v>
+      </c>
+      <c r="T10" s="1">
+        <v>44327</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="45" spans="1:22">
+      <c r="A11">
+        <v>1254</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>20124</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>24642019</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>44328</v>
+      </c>
+      <c r="R11" s="1">
+        <v>44328</v>
+      </c>
+      <c r="S11" s="1">
+        <v>44328</v>
+      </c>
+      <c r="T11" s="1">
+        <v>44328</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="45" spans="1:22">
+      <c r="A12">
+        <v>1255</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>20125</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>24642020</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>44329</v>
+      </c>
+      <c r="R12" s="1">
+        <v>44329</v>
+      </c>
+      <c r="S12" s="1">
+        <v>44329</v>
+      </c>
+      <c r="T12" s="1">
+        <v>44329</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="45" spans="1:22">
+      <c r="A13">
+        <v>1256</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>20126</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>24642021</v>
+      </c>
+      <c r="K13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>44330</v>
+      </c>
+      <c r="R13" s="1">
+        <v>44330</v>
+      </c>
+      <c r="S13" s="1">
+        <v>44330</v>
+      </c>
+      <c r="T13" s="1">
+        <v>44330</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="45" spans="1:22">
+      <c r="A14">
+        <v>1257</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>20127</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>24642022</v>
+      </c>
+      <c r="K14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>44331</v>
+      </c>
+      <c r="R14" s="1">
+        <v>44331</v>
+      </c>
+      <c r="S14" s="1">
+        <v>44331</v>
+      </c>
+      <c r="T14" s="1">
+        <v>44331</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="45" spans="1:22">
+      <c r="A15">
+        <v>1258</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>20128</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>24642023</v>
+      </c>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>44332</v>
+      </c>
+      <c r="R15" s="1">
+        <v>44332</v>
+      </c>
+      <c r="S15" s="1">
+        <v>44332</v>
+      </c>
+      <c r="T15" s="1">
+        <v>44332</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="45" spans="1:22">
+      <c r="A16">
+        <v>1259</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>20129</v>
+      </c>
+      <c r="I16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>24642024</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>44333</v>
+      </c>
+      <c r="R16" s="1">
+        <v>44333</v>
+      </c>
+      <c r="S16" s="1">
+        <v>44333</v>
+      </c>
+      <c r="T16" s="1">
+        <v>44333</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="45" spans="1:22">
+      <c r="A17">
+        <v>1260</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>20130</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>24642025</v>
+      </c>
+      <c r="K17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>44334</v>
+      </c>
+      <c r="R17" s="1">
+        <v>44334</v>
+      </c>
+      <c r="S17" s="1">
+        <v>44334</v>
+      </c>
+      <c r="T17" s="1">
+        <v>44334</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" ht="45" spans="1:22">
+      <c r="A18">
+        <v>1261</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <v>20131</v>
+      </c>
+      <c r="I18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>24642026</v>
+      </c>
+      <c r="K18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>44335</v>
+      </c>
+      <c r="R18" s="1">
+        <v>44335</v>
+      </c>
+      <c r="S18" s="1">
+        <v>44335</v>
+      </c>
+      <c r="T18" s="1">
+        <v>44335</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="45" spans="1:22">
+      <c r="A19">
+        <v>1262</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>20132</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>24642027</v>
+      </c>
+      <c r="K19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>44336</v>
+      </c>
+      <c r="R19" s="1">
+        <v>44336</v>
+      </c>
+      <c r="S19" s="1">
+        <v>44336</v>
+      </c>
+      <c r="T19" s="1">
+        <v>44336</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" ht="45" spans="1:22">
+      <c r="A20">
+        <v>1263</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>21</v>
+      </c>
+      <c r="H20">
+        <v>20133</v>
+      </c>
+      <c r="I20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>24642028</v>
+      </c>
+      <c r="K20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>44337</v>
+      </c>
+      <c r="R20" s="1">
+        <v>44337</v>
+      </c>
+      <c r="S20" s="1">
+        <v>44337</v>
+      </c>
+      <c r="T20" s="1">
+        <v>44337</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" ht="45" spans="1:22">
+      <c r="A21">
+        <v>1264</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>22</v>
+      </c>
+      <c r="H21">
+        <v>20134</v>
+      </c>
+      <c r="I21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>24642029</v>
+      </c>
+      <c r="K21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>44338</v>
+      </c>
+      <c r="R21" s="1">
+        <v>44338</v>
+      </c>
+      <c r="S21" s="1">
+        <v>44338</v>
+      </c>
+      <c r="T21" s="1">
+        <v>44338</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" ht="45" spans="1:22">
+      <c r="A22">
+        <v>1265</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <v>20135</v>
+      </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>24642030</v>
+      </c>
+      <c r="K22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>44339</v>
+      </c>
+      <c r="R22" s="1">
+        <v>44339</v>
+      </c>
+      <c r="S22" s="1">
+        <v>44339</v>
+      </c>
+      <c r="T22" s="1">
+        <v>44339</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" ht="45" spans="1:22">
+      <c r="A23">
+        <v>1266</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <v>20136</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>24642031</v>
+      </c>
+      <c r="K23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>44340</v>
+      </c>
+      <c r="R23" s="1">
+        <v>44340</v>
+      </c>
+      <c r="S23" s="1">
+        <v>44340</v>
+      </c>
+      <c r="T23" s="1">
+        <v>44340</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" ht="45" spans="1:22">
+      <c r="A24">
+        <v>1267</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>20137</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>24642032</v>
+      </c>
+      <c r="K24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" t="s">
+        <v>81</v>
+      </c>
+      <c r="N24" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>44341</v>
+      </c>
+      <c r="R24" s="1">
+        <v>44341</v>
+      </c>
+      <c r="S24" s="1">
+        <v>44341</v>
+      </c>
+      <c r="T24" s="1">
+        <v>44341</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" ht="45" spans="1:22">
+      <c r="A25">
+        <v>1268</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <v>20138</v>
+      </c>
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>24642033</v>
+      </c>
+      <c r="K25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>44342</v>
+      </c>
+      <c r="R25" s="1">
+        <v>44342</v>
+      </c>
+      <c r="S25" s="1">
+        <v>44342</v>
+      </c>
+      <c r="T25" s="1">
+        <v>44342</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="17:21">
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="2"/>
+    </row>
+    <row r="27" spans="17:21">
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="2"/>
+    </row>
+    <row r="28" spans="17:21">
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="2"/>
+    </row>
+    <row r="29" spans="17:21">
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Archivo_Importacion_Inventario_biblioteca.xlsx
+++ b/Archivo_Importacion_Inventario_biblioteca.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="86">
   <si>
     <t>SA5444</t>
   </si>
@@ -280,9 +280,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -294,10 +294,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,7 +310,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,7 +318,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,14 +336,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,6 +350,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,22 +410,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,14 +432,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,187 +447,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,8 +644,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,26 +687,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,21 +715,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -738,29 +729,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,121 +770,121 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1219,8 +1219,8 @@
   <sheetPr/>
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1234,6 +1234,7 @@
     <col min="7" max="7" width="4.28571428571429" customWidth="1"/>
     <col min="9" max="9" width="20.5714285714286" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="16" max="16" width="10.2857142857143"/>
     <col min="17" max="20" width="11.4285714285714"/>
   </cols>
   <sheetData>
@@ -2529,7 +2530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="45" spans="1:22">
+    <row r="20" ht="45" spans="1:21">
       <c r="A20">
         <v>1263</v>
       </c>
@@ -2570,13 +2571,13 @@
         <v>69</v>
       </c>
       <c r="N20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>10</v>
-      </c>
-      <c r="P20" t="s">
         <v>70</v>
+      </c>
+      <c r="P20" s="1">
+        <v>44337</v>
       </c>
       <c r="Q20" s="1">
         <v>44337</v>
@@ -2587,17 +2588,14 @@
       <c r="S20" s="1">
         <v>44337</v>
       </c>
-      <c r="T20" s="1">
-        <v>44337</v>
-      </c>
-      <c r="U20" s="2" t="s">
+      <c r="T20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V20" t="s">
+      <c r="U20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" ht="45" spans="1:22">
+    <row r="21" ht="45" spans="1:21">
       <c r="A21">
         <v>1264</v>
       </c>
@@ -2638,13 +2636,13 @@
         <v>72</v>
       </c>
       <c r="N21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O21" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" t="s">
         <v>73</v>
+      </c>
+      <c r="P21" s="1">
+        <v>44338</v>
       </c>
       <c r="Q21" s="1">
         <v>44338</v>
@@ -2655,17 +2653,14 @@
       <c r="S21" s="1">
         <v>44338</v>
       </c>
-      <c r="T21" s="1">
-        <v>44338</v>
-      </c>
-      <c r="U21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V21" t="s">
+      <c r="U21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" ht="45" spans="1:22">
+    <row r="22" ht="45" spans="1:21">
       <c r="A22">
         <v>1265</v>
       </c>
@@ -2706,13 +2701,13 @@
         <v>75</v>
       </c>
       <c r="N22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" t="s">
         <v>76</v>
+      </c>
+      <c r="P22" s="1">
+        <v>44339</v>
       </c>
       <c r="Q22" s="1">
         <v>44339</v>
@@ -2723,17 +2718,14 @@
       <c r="S22" s="1">
         <v>44339</v>
       </c>
-      <c r="T22" s="1">
-        <v>44339</v>
-      </c>
-      <c r="U22" s="2" t="s">
+      <c r="T22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V22" t="s">
+      <c r="U22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" ht="45" spans="1:22">
+    <row r="23" ht="45" spans="1:21">
       <c r="A23">
         <v>1266</v>
       </c>
@@ -2774,13 +2766,13 @@
         <v>78</v>
       </c>
       <c r="N23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" t="s">
         <v>79</v>
+      </c>
+      <c r="P23" s="1">
+        <v>44340</v>
       </c>
       <c r="Q23" s="1">
         <v>44340</v>
@@ -2791,17 +2783,14 @@
       <c r="S23" s="1">
         <v>44340</v>
       </c>
-      <c r="T23" s="1">
-        <v>44340</v>
-      </c>
-      <c r="U23" s="2" t="s">
+      <c r="T23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V23" t="s">
+      <c r="U23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" ht="45" spans="1:22">
+    <row r="24" ht="45" spans="1:21">
       <c r="A24">
         <v>1267</v>
       </c>
@@ -2842,13 +2831,13 @@
         <v>81</v>
       </c>
       <c r="N24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>10</v>
-      </c>
-      <c r="P24" t="s">
         <v>82</v>
+      </c>
+      <c r="P24" s="1">
+        <v>44341</v>
       </c>
       <c r="Q24" s="1">
         <v>44341</v>
@@ -2859,17 +2848,14 @@
       <c r="S24" s="1">
         <v>44341</v>
       </c>
-      <c r="T24" s="1">
-        <v>44341</v>
-      </c>
-      <c r="U24" s="2" t="s">
+      <c r="T24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V24" t="s">
+      <c r="U24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" ht="45" spans="1:22">
+    <row r="25" ht="45" spans="1:21">
       <c r="A25">
         <v>1268</v>
       </c>
@@ -2910,13 +2896,13 @@
         <v>84</v>
       </c>
       <c r="N25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>10</v>
-      </c>
-      <c r="P25" t="s">
         <v>85</v>
+      </c>
+      <c r="P25" s="1">
+        <v>44342</v>
       </c>
       <c r="Q25" s="1">
         <v>44342</v>
@@ -2927,13 +2913,10 @@
       <c r="S25" s="1">
         <v>44342</v>
       </c>
-      <c r="T25" s="1">
-        <v>44342</v>
-      </c>
-      <c r="U25" s="2" t="s">
+      <c r="T25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V25" t="s">
+      <c r="U25" t="s">
         <v>13</v>
       </c>
     </row>
